--- a/SoilProfile.xlsx
+++ b/SoilProfile.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28440" windowHeight="15072" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28440" windowHeight="15072" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SoilParameters" sheetId="2" r:id="rId1"/>
     <sheet name="ModelParameters" sheetId="3" r:id="rId2"/>
     <sheet name="SheetPileParameters" sheetId="5" r:id="rId3"/>
+    <sheet name="RubberChips" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>Ditch Number</t>
   </si>
@@ -167,10 +168,13 @@
     <t>[1,2.5,2.5,2.5,2.5,2.5,2.5,2.5]</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
     <t>FreeField_Axy</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>Fill</t>
   </si>
 </sst>
 </file>
@@ -941,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -956,7 +960,7 @@
         <v>23</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -981,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1013,7 +1017,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="12">
-        <v>5</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1053,7 +1057,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="12">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1086,7 +1090,7 @@
       </c>
       <c r="B17" s="23">
         <f>B16/(B13*8)</f>
-        <v>0.24147874999999999</v>
+        <v>0.16098583333333333</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1094,7 +1098,7 @@
         <v>30</v>
       </c>
       <c r="B18" s="22">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>
@@ -1117,7 +1121,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="E25" sqref="E24:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1131,7 +1135,7 @@
         <v>31</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1178,4 +1182,43 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="4">
+        <v>200000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="27">
+        <v>7900</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SoilProfile.xlsx
+++ b/SoilProfile.xlsx
@@ -1,28 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D233060E-408A-4BBD-A9F0-4426630EEB13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28440" windowHeight="15072" activeTab="3"/>
+    <workbookView xWindow="3276" yWindow="3852" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SoilParameters" sheetId="2" r:id="rId1"/>
     <sheet name="ModelParameters" sheetId="3" r:id="rId2"/>
-    <sheet name="SheetPileParameters" sheetId="5" r:id="rId3"/>
-    <sheet name="RubberChips" sheetId="6" r:id="rId4"/>
+    <sheet name="Sayfa1" sheetId="7" r:id="rId3"/>
+    <sheet name="SheetPileParameters" sheetId="5" r:id="rId4"/>
+    <sheet name="RubberChips" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="54">
   <si>
     <t>Ditch Number</t>
   </si>
@@ -33,31 +44,7 @@
     <t>Poisson Ratio</t>
   </si>
   <si>
-    <t>Void Ratio</t>
-  </si>
-  <si>
-    <t>Permeability(m/s)</t>
-  </si>
-  <si>
     <t>Thickness(m)</t>
-  </si>
-  <si>
-    <t>SC1</t>
-  </si>
-  <si>
-    <t>SC2</t>
-  </si>
-  <si>
-    <t>CL-CH1</t>
-  </si>
-  <si>
-    <t>CL-CH2</t>
-  </si>
-  <si>
-    <t>CH1</t>
-  </si>
-  <si>
-    <t>Elastic Modulus(kPa)</t>
   </si>
   <si>
     <t>Ditch Length(m)</t>
@@ -165,27 +152,86 @@
     </r>
   </si>
   <si>
-    <t>[1,2.5,2.5,2.5,2.5,2.5,2.5,2.5]</t>
-  </si>
-  <si>
-    <t>FreeField_Axy</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
     <t>Fill</t>
+  </si>
+  <si>
+    <t>[1,1.5,3.5,2.5,2.5,2.5,2.5,2.5,2.5]</t>
+  </si>
+  <si>
+    <t>Layer 1</t>
+  </si>
+  <si>
+    <t>Layer 2</t>
+  </si>
+  <si>
+    <t>Layer 3</t>
+  </si>
+  <si>
+    <t>Layer 4</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>Elastic Modulus(Pa)</t>
+  </si>
+  <si>
+    <t>Menteşe İdealize</t>
+  </si>
+  <si>
+    <t>Layer 5</t>
+  </si>
+  <si>
+    <t>Layer 6</t>
+  </si>
+  <si>
+    <t>Layer 7</t>
+  </si>
+  <si>
+    <t>Layer 8</t>
+  </si>
+  <si>
+    <t>Layer 9</t>
+  </si>
+  <si>
+    <t>Menteşe Ortalama</t>
+  </si>
+  <si>
+    <t>Layer 10</t>
+  </si>
+  <si>
+    <t>Layer 11</t>
+  </si>
+  <si>
+    <t>Milas Ortalama</t>
+  </si>
+  <si>
+    <t>Milas İdealize</t>
+  </si>
+  <si>
+    <t>Milas_A_L50_50Hz</t>
+  </si>
+  <si>
+    <t>Menteşe</t>
+  </si>
+  <si>
+    <t>Serim 1</t>
+  </si>
+  <si>
+    <t>Serim 2</t>
+  </si>
+  <si>
+    <t>Milas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.000000"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +258,12 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -221,7 +273,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -373,11 +425,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -388,9 +451,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -427,10 +487,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -440,6 +497,28 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -462,7 +541,7 @@
       <font>
         <color theme="0"/>
       </font>
-      <numFmt numFmtId="166" formatCode="00000"/>
+      <numFmt numFmtId="165" formatCode="00000"/>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
@@ -744,11 +823,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -757,348 +836,435 @@
     <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2">
         <v>0.05</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4">
-        <f>D3*(H3^2)*2*(1+C3)</f>
-        <v>251695125</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="F2" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="27">
+        <f>D3*(F3^2)*2*(1+C3)</f>
+        <v>321933750</v>
+      </c>
+      <c r="C3" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="D3" s="28">
+        <v>1500</v>
+      </c>
+      <c r="E3" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="F3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="27">
+        <f>D4*(F4^2)*2*(1+C4)</f>
+        <v>321933750</v>
+      </c>
+      <c r="C4" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="D4" s="28">
+        <v>1500</v>
+      </c>
+      <c r="E4" s="28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F4">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="27">
+        <f>D5*(F5^2)*2*(1+C5)</f>
+        <v>326343750</v>
+      </c>
+      <c r="C5" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="D5" s="28">
+        <v>1500</v>
+      </c>
+      <c r="E5" s="28">
+        <v>1.2</v>
+      </c>
+      <c r="F5">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="27">
+        <f>D6*(F6^2)*2*(1+C6)</f>
+        <v>403440000</v>
+      </c>
+      <c r="C6" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="D6" s="28">
+        <v>1500</v>
+      </c>
+      <c r="E6" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="F6">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="27">
+        <f>D7*(F7^2)*2*(1+C7)</f>
+        <v>348843750</v>
+      </c>
+      <c r="C7" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="D7" s="28">
+        <v>1500</v>
+      </c>
+      <c r="E7" s="30">
+        <v>1.7</v>
+      </c>
+      <c r="F7">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="27">
+        <f>D8*(F8^2)*2*(1+C8)</f>
+        <v>335253750</v>
+      </c>
+      <c r="C8" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="D8" s="28">
+        <v>1500</v>
+      </c>
+      <c r="E8" s="30">
+        <v>2.7</v>
+      </c>
+      <c r="F8">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="27">
+        <f>D9*(F9^2)*2*(1+C9)</f>
+        <v>308898000</v>
+      </c>
+      <c r="C9" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="D9" s="30">
         <v>1800</v>
       </c>
-      <c r="E3" s="6">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="E9" s="30">
+        <v>1.2</v>
+      </c>
+      <c r="F9">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="27">
+        <f>D10*(F10^2)*2*(1+C10)</f>
+        <v>308898000</v>
+      </c>
+      <c r="C10" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="D10" s="30">
+        <v>1800</v>
+      </c>
+      <c r="E10" s="30">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F10">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="27">
+        <f>D11*(F11^2)*2*(1+C11)</f>
+        <v>308898000</v>
+      </c>
+      <c r="C11" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="D11" s="30">
+        <v>1800</v>
+      </c>
+      <c r="E11" s="30">
         <v>1</v>
       </c>
-      <c r="G3" s="5">
-        <v>3</v>
-      </c>
-      <c r="H3" s="4">
-        <v>236.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4">
-        <f>D4*(H4^2)*2*(1+C4)</f>
-        <v>615600000</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="D4" s="5">
-        <f>1.9*1000</f>
+      <c r="F11">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="27">
+        <f t="shared" ref="B12" si="0">D12*(F12^2)*2*(1+C12)</f>
+        <v>326059000</v>
+      </c>
+      <c r="C12" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="D12" s="30">
         <v>1900</v>
       </c>
-      <c r="E4" s="6">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="E12" s="30">
+        <v>6.5</v>
+      </c>
+      <c r="F12">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="27">
+        <f>D13*(F13^2)*2*(1+C13)</f>
+        <v>588544000</v>
+      </c>
+      <c r="C13" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="D13" s="30">
+        <v>1900</v>
+      </c>
+      <c r="E13" s="30">
         <v>1</v>
       </c>
-      <c r="G4" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="H4" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4">
-        <f>D5*(H5^2)*2*(1+C5)</f>
-        <v>1005100000</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="D5" s="5">
-        <f>1.9*1000</f>
-        <v>1900</v>
-      </c>
-      <c r="E5" s="6">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="H5" s="4">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="4">
-        <f>D6*(H6^2)*2*(1+C6)</f>
-        <v>1436875000</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="D6" s="5">
-        <f>1.9*1000</f>
-        <v>1900</v>
-      </c>
-      <c r="E6" s="6">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5">
-        <v>5.5</v>
-      </c>
-      <c r="H6" s="4">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4">
-        <f>D7*(H7^2)*2*(1+C7)</f>
-        <v>2414752750</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="D7" s="5">
-        <f>1.9*1000</f>
-        <v>1900</v>
-      </c>
-      <c r="E7" s="6">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="F7" s="5">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H7" s="4">
-        <v>713</v>
+      <c r="F13">
+        <v>352</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="15">
+        <f>SUM(SoilParameters!E3:E13)</f>
+        <v>21</v>
+      </c>
+      <c r="C3" s="29"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="11">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="11">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="16">
-        <f>SUM(SoilParameters!G3:G8)</f>
-        <v>17.600000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="12">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="12">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="12">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="13">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="12">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="12">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="12">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="B16" s="18">
+        <v>193.18299999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="12">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
+      <c r="B17" s="22">
+        <f>B16/(B13*8)</f>
+        <v>0.48295749999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="19">
-        <v>193.18299999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="23">
-        <f>B16/(B13*8)</f>
-        <v>0.16098583333333333</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="22">
-        <v>0.15</v>
+      <c r="B18" s="21">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
@@ -1117,64 +1283,960 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1C3661-8988-47D7-A84F-A79A0F4EE73C}">
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E24:E25"/>
+    <sheetView topLeftCell="F6" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24:I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="H1" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+    </row>
+    <row r="2" spans="1:13" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="4">
+        <f>D3*(F3^2)*2*(1+C3)</f>
+        <v>244800937.5</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1500</v>
+      </c>
+      <c r="E3" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="F3" s="4">
+        <v>255.5</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="27">
+        <f>K3*(M3^2)*2*(1+J3)</f>
+        <v>315375000</v>
+      </c>
+      <c r="J3" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="K3" s="28">
+        <v>1500</v>
+      </c>
+      <c r="L3" s="28">
+        <v>3.1</v>
+      </c>
+      <c r="M3" s="27">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="4">
+        <f>D4*(F4^2)*2*(1+C4)</f>
+        <v>261121000</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1600</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="F4" s="4">
+        <v>255.5</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="27">
+        <f>K4*(M4^2)*2*(1+J4)</f>
+        <v>396093750</v>
+      </c>
+      <c r="J4" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="K4" s="28">
+        <v>1500</v>
+      </c>
+      <c r="L4" s="28">
+        <v>5.9</v>
+      </c>
+      <c r="M4" s="27">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="4">
+        <f>D5*(F5^2)*2*(1+C5)</f>
+        <v>440657000</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1700</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4">
+        <v>322</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="27">
+        <f>K5*(M5^2)*2*(1+J5)</f>
+        <v>311260500</v>
+      </c>
+      <c r="J5" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="K5" s="28">
+        <v>1800</v>
+      </c>
+      <c r="L5" s="28">
+        <v>4.5</v>
+      </c>
+      <c r="M5" s="27">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="4">
+        <f>D6*(F6^2)*2*(1+C6)</f>
+        <v>466840687.5</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1900</v>
+      </c>
+      <c r="E6" s="5">
+        <v>8</v>
+      </c>
+      <c r="F6" s="4">
+        <v>313.5</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="27">
+        <f>K6*(M6^2)*2*(1+J6)</f>
+        <v>328552750</v>
+      </c>
+      <c r="J6" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="K6" s="28">
+        <v>1900</v>
+      </c>
+      <c r="L6" s="28">
+        <v>6.5</v>
+      </c>
+      <c r="M6" s="27">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H7" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="27">
+        <f>K7*(M7^2)*2*(1+J7)</f>
+        <v>593570687.5</v>
+      </c>
+      <c r="J7" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="K7" s="28">
+        <v>1900</v>
+      </c>
+      <c r="L7" s="28">
+        <v>1</v>
+      </c>
+      <c r="M7" s="27">
+        <v>353.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="H8" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+    </row>
+    <row r="9" spans="1:13" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="27">
+        <f>D10*(F10^2)*2*(1+C10)</f>
+        <v>244800937.5</v>
+      </c>
+      <c r="C10" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="D10" s="28">
+        <v>1500</v>
+      </c>
+      <c r="E10" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="F10" s="27">
+        <v>255.5</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="27">
+        <f>K10*(M10^2)*2*(1+J10)</f>
+        <v>314288437.5</v>
+      </c>
+      <c r="J10" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="K10" s="28">
+        <v>1500</v>
+      </c>
+      <c r="L10" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="M10" s="27">
+        <v>289.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="27">
+        <f>D11*(F11^2)*2*(1+C11)</f>
+        <v>212415000</v>
+      </c>
+      <c r="C11" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="D11" s="28">
+        <v>1500</v>
+      </c>
+      <c r="E11" s="28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F11" s="27">
+        <v>238</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="27">
+        <f>K11*(M11^2)*2*(1+J11)</f>
+        <v>318645937.5</v>
+      </c>
+      <c r="J11" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="K11" s="28">
+        <v>1500</v>
+      </c>
+      <c r="L11" s="28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M11" s="27">
+        <v>291.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="27">
+        <f>D12*(F12^2)*2*(1+C12)</f>
+        <v>162240000</v>
+      </c>
+      <c r="C12" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="D12" s="28">
+        <v>1500</v>
+      </c>
+      <c r="E12" s="28">
+        <v>1.2</v>
+      </c>
+      <c r="F12" s="27">
+        <v>208</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="27">
+        <f>K12*(M12^2)*2*(1+J12)</f>
+        <v>328560000</v>
+      </c>
+      <c r="J12" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="K12" s="28">
+        <v>1500</v>
+      </c>
+      <c r="L12" s="28">
+        <v>1.2</v>
+      </c>
+      <c r="M12" s="27">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="27">
+        <f>D13*(F13^2)*2*(1+C13)</f>
+        <v>213444000</v>
+      </c>
+      <c r="C13" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="D13" s="28">
+        <v>1600</v>
+      </c>
+      <c r="E13" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="F13" s="27">
+        <v>231</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="27">
+        <f>K13*(M13^2)*2*(1+J13)</f>
+        <v>413340000</v>
+      </c>
+      <c r="J13" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="K13" s="28">
+        <v>1500</v>
+      </c>
+      <c r="L13" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="M13" s="27">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="27">
+        <f t="shared" ref="B14:B18" si="0">D14*(F14^2)*2*(1+C14)</f>
+        <v>283024000</v>
+      </c>
+      <c r="C14" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="D14" s="28">
+        <v>1600</v>
+      </c>
+      <c r="E14" s="30">
+        <v>1.7</v>
+      </c>
+      <c r="F14" s="31">
+        <v>266</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="27">
+        <f t="shared" ref="I14:I20" si="1">K14*(M14^2)*2*(1+J14)</f>
+        <v>408375000</v>
+      </c>
+      <c r="J14" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="K14" s="28">
+        <v>1500</v>
+      </c>
+      <c r="L14" s="30">
+        <v>1.7</v>
+      </c>
+      <c r="M14" s="31">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="27">
+        <f t="shared" si="0"/>
+        <v>332929000</v>
+      </c>
+      <c r="C15" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="D15" s="28">
+        <v>1600</v>
+      </c>
+      <c r="E15" s="30">
+        <v>1.8</v>
+      </c>
+      <c r="F15" s="31">
+        <v>288.5</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="27">
+        <f t="shared" si="1"/>
+        <v>376833750</v>
+      </c>
+      <c r="J15" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="K15" s="28">
+        <v>1500</v>
+      </c>
+      <c r="L15" s="30">
+        <v>2.7</v>
+      </c>
+      <c r="M15" s="31">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="27">
+        <f t="shared" si="0"/>
+        <v>425732062.5</v>
+      </c>
+      <c r="C16" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="D16" s="30">
+        <v>1700</v>
+      </c>
+      <c r="E16" s="30">
+        <v>2.1</v>
+      </c>
+      <c r="F16" s="31">
+        <v>316.5</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="27">
+        <f t="shared" si="1"/>
+        <v>281250000</v>
+      </c>
+      <c r="J16" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="K16" s="30">
+        <v>1800</v>
+      </c>
+      <c r="L16" s="30">
+        <v>1.2</v>
+      </c>
+      <c r="M16" s="31">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="27">
+        <f t="shared" si="0"/>
+        <v>460024250</v>
+      </c>
+      <c r="C17" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="D17" s="30">
+        <v>1700</v>
+      </c>
+      <c r="E17" s="30">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F17" s="31">
+        <v>329</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="27">
+        <f t="shared" si="1"/>
+        <v>325624500</v>
+      </c>
+      <c r="J17" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="K17" s="30">
+        <v>1800</v>
+      </c>
+      <c r="L17" s="30">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M17" s="31">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="27">
+        <f t="shared" si="0"/>
+        <v>466840687.5</v>
+      </c>
+      <c r="C18" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="D18" s="30">
+        <v>1900</v>
+      </c>
+      <c r="E18" s="30">
+        <v>7.5</v>
+      </c>
+      <c r="F18" s="31">
+        <v>313.5</v>
+      </c>
+      <c r="H18" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="27">
+        <f t="shared" si="1"/>
+        <v>329266125</v>
+      </c>
+      <c r="J18" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="K18" s="30">
+        <v>1800</v>
+      </c>
+      <c r="L18" s="30">
+        <v>1</v>
+      </c>
+      <c r="M18" s="31">
+        <v>270.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H19" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" s="27">
+        <f t="shared" si="1"/>
+        <v>347558687.5</v>
+      </c>
+      <c r="J19" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="K19" s="30">
+        <v>1900</v>
+      </c>
+      <c r="L19" s="30">
+        <v>6.5</v>
+      </c>
+      <c r="M19" s="31">
+        <v>270.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H20" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="27">
+        <f t="shared" si="1"/>
+        <v>593570687.5</v>
+      </c>
+      <c r="J20" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="K20" s="30">
+        <v>1900</v>
+      </c>
+      <c r="L20" s="30">
+        <v>1</v>
+      </c>
+      <c r="M20" s="31">
+        <v>353.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>267</v>
+      </c>
+      <c r="B23">
+        <v>244</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>234</v>
+      </c>
+      <c r="B24">
+        <v>242</v>
+      </c>
+      <c r="H24">
+        <v>286</v>
+      </c>
+      <c r="I24">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>188</v>
+      </c>
+      <c r="B25">
+        <v>228</v>
+      </c>
+      <c r="H25">
+        <v>290</v>
+      </c>
+      <c r="I25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>229</v>
+      </c>
+      <c r="B26">
+        <v>233</v>
+      </c>
+      <c r="H26">
+        <v>297</v>
+      </c>
+      <c r="I26">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>274</v>
+      </c>
+      <c r="B27">
+        <v>258</v>
+      </c>
+      <c r="H27">
+        <v>336</v>
+      </c>
+      <c r="I27">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>289</v>
+      </c>
+      <c r="B28">
+        <v>288</v>
+      </c>
+      <c r="H28">
+        <v>355</v>
+      </c>
+      <c r="I28">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>345</v>
+      </c>
+      <c r="B29">
+        <v>288</v>
+      </c>
+      <c r="H29">
+        <v>335</v>
+      </c>
+      <c r="I29">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>366</v>
+      </c>
+      <c r="B30">
+        <v>292</v>
+      </c>
+      <c r="H30">
+        <v>238</v>
+      </c>
+      <c r="I30">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>326</v>
+      </c>
+      <c r="B31">
+        <v>301</v>
+      </c>
+      <c r="H31">
+        <v>276</v>
+      </c>
+      <c r="I31">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H32">
+        <v>279</v>
+      </c>
+      <c r="I32">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="33" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H33">
+        <v>279</v>
+      </c>
+      <c r="I33">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H34">
+        <v>355</v>
+      </c>
+      <c r="I34">
+        <v>352</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="H1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.44140625" style="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
-        <v>31</v>
+      <c r="A1" s="24" t="s">
+        <v>23</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
-        <v>32</v>
+      <c r="A2" s="24" t="s">
+        <v>24</v>
       </c>
       <c r="B2" s="4">
         <v>200000000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>33</v>
+      <c r="A3" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="B3" s="4">
         <v>0.05</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
-        <v>35</v>
+      <c r="A4" s="24" t="s">
+        <v>27</v>
       </c>
       <c r="B4" s="4">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="27">
+      <c r="A5" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="27">
+      <c r="A6" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="25">
         <v>7900</v>
       </c>
     </row>
@@ -1184,37 +2246,37 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
-        <v>41</v>
+      <c r="A1" s="24" t="s">
+        <v>30</v>
       </c>
       <c r="B1" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
-        <v>32</v>
+      <c r="A2" s="24" t="s">
+        <v>24</v>
       </c>
       <c r="B2" s="4">
         <v>200000000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="27">
+      <c r="A3" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="25">
         <v>7900</v>
       </c>
     </row>

--- a/SoilProfile.xlsx
+++ b/SoilProfile.xlsx
@@ -3,16 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8DAFEF-33AD-462E-BE35-581A355B4177}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710B01DC-582D-4607-8A65-B005E5658027}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SoilParameters" sheetId="2" r:id="rId1"/>
     <sheet name="ModelParameters" sheetId="3" r:id="rId2"/>
     <sheet name="Sayfa1" sheetId="7" r:id="rId3"/>
-    <sheet name="SheetPileParameters" sheetId="5" r:id="rId4"/>
-    <sheet name="RubberChips" sheetId="6" r:id="rId5"/>
+    <sheet name="a" sheetId="8" r:id="rId4"/>
+    <sheet name="B" sheetId="9" r:id="rId5"/>
+    <sheet name="SheetPileParameters" sheetId="5" r:id="rId6"/>
+    <sheet name="RubberChips" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="56">
   <si>
     <t>Ditch Number</t>
   </si>
@@ -167,71 +169,78 @@
     <t>Layer 4</t>
   </si>
   <si>
+    <t>Elastic Modulus(Pa)</t>
+  </si>
+  <si>
+    <t>Menteşe İdealize</t>
+  </si>
+  <si>
+    <t>Layer 5</t>
+  </si>
+  <si>
+    <t>Layer 6</t>
+  </si>
+  <si>
+    <t>Layer 7</t>
+  </si>
+  <si>
+    <t>Layer 8</t>
+  </si>
+  <si>
+    <t>Layer 9</t>
+  </si>
+  <si>
+    <t>Menteşe Ortalama</t>
+  </si>
+  <si>
+    <t>Layer 10</t>
+  </si>
+  <si>
+    <t>Layer 11</t>
+  </si>
+  <si>
+    <t>Milas Ortalama</t>
+  </si>
+  <si>
+    <t>Milas İdealize</t>
+  </si>
+  <si>
+    <t>Milas_A_L50_50Hz</t>
+  </si>
+  <si>
+    <t>Menteşe</t>
+  </si>
+  <si>
+    <t>Serim 1</t>
+  </si>
+  <si>
+    <t>Serim 2</t>
+  </si>
+  <si>
+    <t>Milas</t>
+  </si>
+  <si>
+    <t>[1,2.5,6,8.5,11,13.5,16,18.5,21]</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
-    <t>Elastic Modulus(Pa)</t>
-  </si>
-  <si>
-    <t>Menteşe İdealize</t>
-  </si>
-  <si>
-    <t>Layer 5</t>
-  </si>
-  <si>
-    <t>Layer 6</t>
-  </si>
-  <si>
-    <t>Layer 7</t>
-  </si>
-  <si>
-    <t>Layer 8</t>
-  </si>
-  <si>
-    <t>Layer 9</t>
-  </si>
-  <si>
-    <t>Menteşe Ortalama</t>
-  </si>
-  <si>
-    <t>Layer 10</t>
-  </si>
-  <si>
-    <t>Layer 11</t>
-  </si>
-  <si>
-    <t>Milas Ortalama</t>
-  </si>
-  <si>
-    <t>Milas İdealize</t>
-  </si>
-  <si>
-    <t>Milas_A_L50_50Hz</t>
-  </si>
-  <si>
-    <t>Menteşe</t>
-  </si>
-  <si>
-    <t>Serim 1</t>
-  </si>
-  <si>
-    <t>Serim 2</t>
-  </si>
-  <si>
-    <t>Milas</t>
-  </si>
-  <si>
-    <t>[1,2.5,6,8.5,11,13.5,16,18.5,21]</t>
+    <t>Density(kg/m3)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,6 +273,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -429,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -504,6 +528,18 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -527,7 +563,7 @@
       <font>
         <color theme="0"/>
       </font>
-      <numFmt numFmtId="165" formatCode="00000"/>
+      <numFmt numFmtId="166" formatCode="00000"/>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
@@ -810,10 +846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -835,18 +871,18 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>3</v>
@@ -861,19 +897,19 @@
       </c>
       <c r="B3" s="27">
         <f>D3*(F3^2)*2*(1+C3)</f>
-        <v>314288437.5</v>
+        <v>225000000</v>
       </c>
       <c r="C3" s="27">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D3" s="28">
         <v>1500</v>
       </c>
       <c r="E3" s="28">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="F3" s="27">
-        <v>289.5</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -882,208 +918,19 @@
       </c>
       <c r="B4" s="27">
         <f>D4*(F4^2)*2*(1+C4)</f>
-        <v>318645937.5</v>
+        <v>388800000</v>
       </c>
       <c r="C4" s="27">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D4" s="28">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="E4" s="28">
-        <v>1.1000000000000001</v>
+        <v>18.5</v>
       </c>
       <c r="F4" s="27">
-        <v>291.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="27">
-        <f>D5*(F5^2)*2*(1+C5)</f>
-        <v>328560000</v>
-      </c>
-      <c r="C5" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="D5" s="28">
-        <v>1500</v>
-      </c>
-      <c r="E5" s="28">
-        <v>1.2</v>
-      </c>
-      <c r="F5" s="27">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="27">
-        <f>D6*(F6^2)*2*(1+C6)</f>
-        <v>413340000</v>
-      </c>
-      <c r="C6" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="D6" s="28">
-        <v>1500</v>
-      </c>
-      <c r="E6" s="28">
-        <v>1.5</v>
-      </c>
-      <c r="F6" s="27">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="27">
-        <f t="shared" ref="B7:B13" si="0">D7*(F7^2)*2*(1+C7)</f>
-        <v>408375000</v>
-      </c>
-      <c r="C7" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="D7" s="28">
-        <v>1500</v>
-      </c>
-      <c r="E7" s="31">
-        <v>1.7</v>
-      </c>
-      <c r="F7" s="25">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="27">
-        <f t="shared" si="0"/>
-        <v>376833750</v>
-      </c>
-      <c r="C8" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="D8" s="28">
-        <v>1500</v>
-      </c>
-      <c r="E8" s="31">
-        <v>2.7</v>
-      </c>
-      <c r="F8" s="25">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="27">
-        <f t="shared" si="0"/>
-        <v>281250000</v>
-      </c>
-      <c r="C9" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="D9" s="31">
-        <v>1800</v>
-      </c>
-      <c r="E9" s="31">
-        <v>1.2</v>
-      </c>
-      <c r="F9" s="25">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="27">
-        <f t="shared" si="0"/>
-        <v>325624500</v>
-      </c>
-      <c r="C10" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="D10" s="31">
-        <v>1800</v>
-      </c>
-      <c r="E10" s="31">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F10" s="25">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="27">
-        <f t="shared" si="0"/>
-        <v>329266125</v>
-      </c>
-      <c r="C11" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="D11" s="31">
-        <v>1800</v>
-      </c>
-      <c r="E11" s="31">
-        <v>2.5</v>
-      </c>
-      <c r="F11" s="25">
-        <v>270.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="27">
-        <f t="shared" si="0"/>
-        <v>347558687.5</v>
-      </c>
-      <c r="C12" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="D12" s="31">
-        <v>1900</v>
-      </c>
-      <c r="E12" s="31">
-        <v>5</v>
-      </c>
-      <c r="F12" s="25">
-        <v>270.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="27">
-        <f t="shared" si="0"/>
-        <v>593570687.5</v>
-      </c>
-      <c r="C13" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="D13" s="31">
-        <v>1900</v>
-      </c>
-      <c r="E13" s="31">
-        <v>1</v>
-      </c>
-      <c r="F13" s="25">
-        <v>353.5</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -1096,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1111,7 +958,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1119,7 +966,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="14">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1127,7 +974,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="15">
-        <f>SUM(SoilParameters!E3:E13)</f>
+        <f>SUM(SoilParameters!E3:E4)</f>
         <v>21</v>
       </c>
       <c r="C3" s="29"/>
@@ -1185,7 +1032,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1201,7 +1048,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="11">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1209,7 +1056,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="11">
-        <v>120</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1242,7 +1089,7 @@
       </c>
       <c r="B17" s="22">
         <f>B16/(B13*8)</f>
-        <v>0.20123229166666665</v>
+        <v>0.60369687500000002</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1272,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1C3661-8988-47D7-A84F-A79A0F4EE73C}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:M20"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1293,29 +1140,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="H1" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
+      <c r="A1" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="H1" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
     </row>
     <row r="2" spans="1:13" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
@@ -1333,13 +1180,13 @@
         <v>1</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>3</v>
@@ -1372,7 +1219,6 @@
         <v>31</v>
       </c>
       <c r="I3" s="27">
-        <f>K3*(M3^2)*2*(1+J3)</f>
         <v>315375000</v>
       </c>
       <c r="J3" s="27">
@@ -1412,7 +1258,6 @@
         <v>32</v>
       </c>
       <c r="I4" s="27">
-        <f>K4*(M4^2)*2*(1+J4)</f>
         <v>396093750</v>
       </c>
       <c r="J4" s="27">
@@ -1452,7 +1297,6 @@
         <v>33</v>
       </c>
       <c r="I5" s="27">
-        <f>K5*(M5^2)*2*(1+J5)</f>
         <v>311260500</v>
       </c>
       <c r="J5" s="27">
@@ -1462,7 +1306,7 @@
         <v>1800</v>
       </c>
       <c r="L5" s="28">
-        <v>4.5</v>
+        <v>11</v>
       </c>
       <c r="M5" s="27">
         <v>263</v>
@@ -1492,8 +1336,7 @@
         <v>34</v>
       </c>
       <c r="I6" s="27">
-        <f>K6*(M6^2)*2*(1+J6)</f>
-        <v>328552750</v>
+        <v>593570687.5</v>
       </c>
       <c r="J6" s="27">
         <v>0.25</v>
@@ -1502,57 +1345,44 @@
         <v>1900</v>
       </c>
       <c r="L6" s="28">
-        <v>6.5</v>
+        <v>1</v>
       </c>
       <c r="M6" s="27">
-        <v>263</v>
+        <v>353.5</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H7" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="27">
-        <f>K7*(M7^2)*2*(1+J7)</f>
-        <v>593570687.5</v>
-      </c>
-      <c r="J7" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="K7" s="28">
-        <v>1900</v>
-      </c>
-      <c r="L7" s="28">
-        <v>1</v>
-      </c>
-      <c r="M7" s="27">
-        <v>353.5</v>
-      </c>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="27"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="H8" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
+      <c r="A8" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="H8" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
     </row>
     <row r="9" spans="1:13" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
@@ -1570,7 +1400,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>2</v>
@@ -1747,7 +1577,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="27">
         <f t="shared" ref="B14:B18" si="0">D14*(F14^2)*2*(1+C14)</f>
@@ -1766,7 +1596,7 @@
         <v>266</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I14" s="27">
         <f t="shared" ref="I14:I20" si="1">K14*(M14^2)*2*(1+J14)</f>
@@ -1787,7 +1617,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" s="27">
         <f t="shared" si="0"/>
@@ -1806,7 +1636,7 @@
         <v>288.5</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I15" s="27">
         <f t="shared" si="1"/>
@@ -1827,7 +1657,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="27">
         <f t="shared" si="0"/>
@@ -1846,7 +1676,7 @@
         <v>316.5</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I16" s="27">
         <f t="shared" si="1"/>
@@ -1867,7 +1697,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" s="27">
         <f t="shared" si="0"/>
@@ -1886,7 +1716,7 @@
         <v>329</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I17" s="27">
         <f t="shared" si="1"/>
@@ -1907,7 +1737,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" s="27">
         <f t="shared" si="0"/>
@@ -1926,7 +1756,7 @@
         <v>313.5</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I18" s="27">
         <f t="shared" si="1"/>
@@ -1947,7 +1777,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H19" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I19" s="27">
         <f t="shared" si="1"/>
@@ -1968,7 +1798,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H20" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I20" s="27">
         <f t="shared" si="1"/>
@@ -1989,18 +1819,18 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
         <v>50</v>
       </c>
-      <c r="B22" t="s">
+      <c r="H22" s="30" t="s">
         <v>51</v>
-      </c>
-      <c r="H22" s="30" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -2011,10 +1841,10 @@
         <v>244</v>
       </c>
       <c r="H23" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" t="s">
         <v>50</v>
-      </c>
-      <c r="I23" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -2165,11 +1995,648 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0215C3-E54D-4C6C-B6D8-C27F5EE3E159}">
+  <dimension ref="A1:P6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="33">
+        <v>10</v>
+      </c>
+      <c r="C1" s="33">
+        <v>20</v>
+      </c>
+      <c r="D1" s="33">
+        <v>30</v>
+      </c>
+      <c r="E1" s="33">
+        <v>40</v>
+      </c>
+      <c r="F1" s="33">
+        <v>50</v>
+      </c>
+      <c r="G1" s="33">
+        <v>60</v>
+      </c>
+      <c r="H1" s="33">
+        <v>70</v>
+      </c>
+      <c r="I1" s="33">
+        <v>80</v>
+      </c>
+      <c r="J1" s="33">
+        <v>90</v>
+      </c>
+      <c r="K1" s="33">
+        <v>100</v>
+      </c>
+      <c r="L1" s="33">
+        <v>110</v>
+      </c>
+      <c r="M1" s="33">
+        <v>120</v>
+      </c>
+      <c r="N1" s="33">
+        <v>130</v>
+      </c>
+      <c r="O1" s="33">
+        <v>140</v>
+      </c>
+      <c r="P1" s="33">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="33">
+        <v>3</v>
+      </c>
+      <c r="B2" s="32">
+        <v>1.4139999999999999</v>
+      </c>
+      <c r="C2" s="32">
+        <v>3.5339999999999998</v>
+      </c>
+      <c r="D2" s="32">
+        <v>5.4980000000000002</v>
+      </c>
+      <c r="E2" s="32">
+        <v>7.4219999999999997</v>
+      </c>
+      <c r="F2" s="32">
+        <v>9.3309999999999995</v>
+      </c>
+      <c r="G2" s="32">
+        <v>11.23</v>
+      </c>
+      <c r="H2" s="32">
+        <v>13.13</v>
+      </c>
+      <c r="I2" s="32">
+        <v>15.02</v>
+      </c>
+      <c r="J2" s="32">
+        <v>16.91</v>
+      </c>
+      <c r="K2" s="32">
+        <v>18.8</v>
+      </c>
+      <c r="L2" s="32">
+        <v>20.69</v>
+      </c>
+      <c r="M2" s="32">
+        <v>22.58</v>
+      </c>
+      <c r="N2" s="32">
+        <v>24.47</v>
+      </c>
+      <c r="O2" s="32">
+        <v>26.36</v>
+      </c>
+      <c r="P2" s="32">
+        <v>28.24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="33">
+        <v>4</v>
+      </c>
+      <c r="B3" s="32">
+        <v>1.885</v>
+      </c>
+      <c r="C3" s="32">
+        <v>4.7119999999999997</v>
+      </c>
+      <c r="D3" s="32">
+        <v>7.33</v>
+      </c>
+      <c r="E3" s="32">
+        <v>9.8960000000000008</v>
+      </c>
+      <c r="F3" s="32">
+        <v>12.44</v>
+      </c>
+      <c r="G3" s="32">
+        <v>14.97</v>
+      </c>
+      <c r="H3" s="32">
+        <v>17.5</v>
+      </c>
+      <c r="I3" s="32">
+        <v>20.03</v>
+      </c>
+      <c r="J3" s="32">
+        <v>22.55</v>
+      </c>
+      <c r="K3" s="32">
+        <v>25.07</v>
+      </c>
+      <c r="L3" s="32">
+        <v>27.59</v>
+      </c>
+      <c r="M3" s="32">
+        <v>30.11</v>
+      </c>
+      <c r="N3" s="32">
+        <v>32.619999999999997</v>
+      </c>
+      <c r="O3" s="32">
+        <v>35.14</v>
+      </c>
+      <c r="P3" s="32">
+        <v>37.659999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="33">
+        <v>5</v>
+      </c>
+      <c r="B4" s="32">
+        <v>2.3559999999999999</v>
+      </c>
+      <c r="C4" s="32">
+        <v>5.89</v>
+      </c>
+      <c r="D4" s="32">
+        <v>9.1630000000000003</v>
+      </c>
+      <c r="E4" s="32">
+        <v>12.37</v>
+      </c>
+      <c r="F4" s="32">
+        <v>15.55</v>
+      </c>
+      <c r="G4" s="32">
+        <v>18.72</v>
+      </c>
+      <c r="H4" s="32">
+        <v>21.88</v>
+      </c>
+      <c r="I4" s="32">
+        <v>25.03</v>
+      </c>
+      <c r="J4" s="32">
+        <v>28.19</v>
+      </c>
+      <c r="K4" s="32">
+        <v>31.34</v>
+      </c>
+      <c r="L4" s="32">
+        <v>34.49</v>
+      </c>
+      <c r="M4" s="32">
+        <v>37.630000000000003</v>
+      </c>
+      <c r="N4" s="32">
+        <v>40.78</v>
+      </c>
+      <c r="O4" s="32">
+        <v>43.93</v>
+      </c>
+      <c r="P4" s="32">
+        <v>47.07</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="33">
+        <v>6</v>
+      </c>
+      <c r="B5" s="32">
+        <v>2.827</v>
+      </c>
+      <c r="C5" s="32">
+        <v>7.069</v>
+      </c>
+      <c r="D5" s="32">
+        <v>11</v>
+      </c>
+      <c r="E5" s="32">
+        <v>14.84</v>
+      </c>
+      <c r="F5" s="32">
+        <v>18.66</v>
+      </c>
+      <c r="G5" s="32">
+        <v>22.46</v>
+      </c>
+      <c r="H5" s="32">
+        <v>26.25</v>
+      </c>
+      <c r="I5" s="32">
+        <v>30.04</v>
+      </c>
+      <c r="J5" s="32">
+        <v>33.82</v>
+      </c>
+      <c r="K5" s="32">
+        <v>37.6</v>
+      </c>
+      <c r="L5" s="32">
+        <v>41.38</v>
+      </c>
+      <c r="M5" s="32">
+        <v>45.16</v>
+      </c>
+      <c r="N5" s="32">
+        <v>48.94</v>
+      </c>
+      <c r="O5" s="32">
+        <v>52.71</v>
+      </c>
+      <c r="P5" s="32">
+        <v>56.49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="33">
+        <v>7</v>
+      </c>
+      <c r="B6" s="32">
+        <v>3.2989999999999999</v>
+      </c>
+      <c r="C6" s="32">
+        <v>8.2469999999999999</v>
+      </c>
+      <c r="D6" s="32">
+        <v>12.83</v>
+      </c>
+      <c r="E6" s="32">
+        <v>17.32</v>
+      </c>
+      <c r="F6" s="32">
+        <v>21.77</v>
+      </c>
+      <c r="G6" s="32">
+        <v>26.21</v>
+      </c>
+      <c r="H6" s="32">
+        <v>30.63</v>
+      </c>
+      <c r="I6" s="32">
+        <v>35.049999999999997</v>
+      </c>
+      <c r="J6" s="32">
+        <v>39.46</v>
+      </c>
+      <c r="K6" s="32">
+        <v>43.87</v>
+      </c>
+      <c r="L6" s="32">
+        <v>48.28</v>
+      </c>
+      <c r="M6" s="32">
+        <v>52.69</v>
+      </c>
+      <c r="N6" s="32">
+        <v>57.09</v>
+      </c>
+      <c r="O6" s="32">
+        <v>61.5</v>
+      </c>
+      <c r="P6" s="32">
+        <v>65.900000000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D50B254-A166-4653-B21E-51028CAB79EA}">
+  <dimension ref="A1:P6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="16" width="11.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="33">
+        <v>10</v>
+      </c>
+      <c r="C1" s="33">
+        <v>20</v>
+      </c>
+      <c r="D1" s="33">
+        <v>30</v>
+      </c>
+      <c r="E1" s="33">
+        <v>40</v>
+      </c>
+      <c r="F1" s="33">
+        <v>50</v>
+      </c>
+      <c r="G1" s="33">
+        <v>60</v>
+      </c>
+      <c r="H1" s="33">
+        <v>70</v>
+      </c>
+      <c r="I1" s="33">
+        <v>80</v>
+      </c>
+      <c r="J1" s="33">
+        <v>90</v>
+      </c>
+      <c r="K1" s="33">
+        <v>100</v>
+      </c>
+      <c r="L1" s="33">
+        <v>110</v>
+      </c>
+      <c r="M1" s="33">
+        <v>120</v>
+      </c>
+      <c r="N1" s="33">
+        <v>130</v>
+      </c>
+      <c r="O1" s="33">
+        <v>140</v>
+      </c>
+      <c r="P1" s="33">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="33">
+        <v>3</v>
+      </c>
+      <c r="B2" s="35">
+        <v>4.7750000000000001E-4</v>
+      </c>
+      <c r="C2" s="35">
+        <v>2.387E-4</v>
+      </c>
+      <c r="D2" s="35">
+        <v>1.5919999999999999E-4</v>
+      </c>
+      <c r="E2" s="35">
+        <v>1.194E-4</v>
+      </c>
+      <c r="F2" s="35">
+        <v>9.5489999999999995E-5</v>
+      </c>
+      <c r="G2" s="35">
+        <v>7.9579999999999994E-5</v>
+      </c>
+      <c r="H2" s="35">
+        <v>6.8209999999999999E-5</v>
+      </c>
+      <c r="I2" s="35">
+        <v>5.9679999999999998E-5</v>
+      </c>
+      <c r="J2" s="35">
+        <v>5.3050000000000002E-5</v>
+      </c>
+      <c r="K2" s="35">
+        <v>4.7750000000000002E-5</v>
+      </c>
+      <c r="L2" s="35">
+        <v>4.3409999999999999E-5</v>
+      </c>
+      <c r="M2" s="35">
+        <v>3.9789999999999997E-5</v>
+      </c>
+      <c r="N2" s="35">
+        <v>3.6730000000000002E-5</v>
+      </c>
+      <c r="O2" s="35">
+        <v>3.4100000000000002E-5</v>
+      </c>
+      <c r="P2" s="35">
+        <v>3.1829999999999998E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="33">
+        <v>4</v>
+      </c>
+      <c r="B3" s="35">
+        <v>6.3659999999999997E-4</v>
+      </c>
+      <c r="C3" s="35">
+        <v>3.1829999999999998E-4</v>
+      </c>
+      <c r="D3" s="35">
+        <v>2.1220000000000001E-4</v>
+      </c>
+      <c r="E3" s="35">
+        <v>1.5919999999999999E-4</v>
+      </c>
+      <c r="F3" s="35">
+        <v>1.273E-4</v>
+      </c>
+      <c r="G3" s="35">
+        <v>1.061E-4</v>
+      </c>
+      <c r="H3" s="35">
+        <v>9.0950000000000002E-5</v>
+      </c>
+      <c r="I3" s="35">
+        <v>7.9579999999999994E-5</v>
+      </c>
+      <c r="J3" s="35">
+        <v>7.0740000000000004E-5</v>
+      </c>
+      <c r="K3" s="35">
+        <v>6.3659999999999997E-5</v>
+      </c>
+      <c r="L3" s="35">
+        <v>5.787E-5</v>
+      </c>
+      <c r="M3" s="35">
+        <v>5.3050000000000002E-5</v>
+      </c>
+      <c r="N3" s="35">
+        <v>4.897E-5</v>
+      </c>
+      <c r="O3" s="35">
+        <v>4.5469999999999997E-5</v>
+      </c>
+      <c r="P3" s="35">
+        <v>4.244E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="33">
+        <v>5</v>
+      </c>
+      <c r="B4" s="35">
+        <v>7.9580000000000004E-4</v>
+      </c>
+      <c r="C4" s="35">
+        <v>3.9790000000000002E-4</v>
+      </c>
+      <c r="D4" s="35">
+        <v>2.653E-4</v>
+      </c>
+      <c r="E4" s="35">
+        <v>1.9890000000000001E-4</v>
+      </c>
+      <c r="F4" s="35">
+        <v>1.5919999999999999E-4</v>
+      </c>
+      <c r="G4" s="35">
+        <v>1.326E-4</v>
+      </c>
+      <c r="H4" s="35">
+        <v>1.137E-4</v>
+      </c>
+      <c r="I4" s="35">
+        <v>9.9469999999999995E-5</v>
+      </c>
+      <c r="J4" s="35">
+        <v>8.8419999999999997E-5</v>
+      </c>
+      <c r="K4" s="35">
+        <v>7.9579999999999994E-5</v>
+      </c>
+      <c r="L4" s="35">
+        <v>7.2340000000000002E-5</v>
+      </c>
+      <c r="M4" s="35">
+        <v>6.6309999999999994E-5</v>
+      </c>
+      <c r="N4" s="35">
+        <v>6.1210000000000005E-5</v>
+      </c>
+      <c r="O4" s="35">
+        <v>5.6839999999999998E-5</v>
+      </c>
+      <c r="P4" s="35">
+        <v>5.3050000000000002E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="33">
+        <v>6</v>
+      </c>
+      <c r="B5" s="35">
+        <v>9.5489999999999995E-4</v>
+      </c>
+      <c r="C5" s="35">
+        <v>4.7750000000000001E-4</v>
+      </c>
+      <c r="D5" s="35">
+        <v>3.1829999999999998E-4</v>
+      </c>
+      <c r="E5" s="35">
+        <v>2.387E-4</v>
+      </c>
+      <c r="F5" s="35">
+        <v>1.9100000000000001E-4</v>
+      </c>
+      <c r="G5" s="35">
+        <v>1.5919999999999999E-4</v>
+      </c>
+      <c r="H5" s="35">
+        <v>1.3640000000000001E-4</v>
+      </c>
+      <c r="I5" s="35">
+        <v>1.194E-4</v>
+      </c>
+      <c r="J5" s="35">
+        <v>1.061E-4</v>
+      </c>
+      <c r="K5" s="35">
+        <v>9.5489999999999995E-5</v>
+      </c>
+      <c r="L5" s="35">
+        <v>8.6810000000000004E-5</v>
+      </c>
+      <c r="M5" s="35">
+        <v>7.9579999999999994E-5</v>
+      </c>
+      <c r="N5" s="35">
+        <v>7.3460000000000005E-5</v>
+      </c>
+      <c r="O5" s="35">
+        <v>6.8209999999999999E-5</v>
+      </c>
+      <c r="P5" s="35">
+        <v>6.3659999999999997E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="33">
+        <v>7</v>
+      </c>
+      <c r="B6" s="35">
+        <v>1.114E-3</v>
+      </c>
+      <c r="C6" s="35">
+        <v>5.5699999999999999E-4</v>
+      </c>
+      <c r="D6" s="35">
+        <v>3.7139999999999997E-4</v>
+      </c>
+      <c r="E6" s="35">
+        <v>2.7849999999999999E-4</v>
+      </c>
+      <c r="F6" s="35">
+        <v>2.2279999999999999E-4</v>
+      </c>
+      <c r="G6" s="35">
+        <v>1.8569999999999999E-4</v>
+      </c>
+      <c r="H6" s="35">
+        <v>1.5919999999999999E-4</v>
+      </c>
+      <c r="I6" s="35">
+        <v>1.393E-4</v>
+      </c>
+      <c r="J6" s="35">
+        <v>1.238E-4</v>
+      </c>
+      <c r="K6" s="35">
+        <v>1.114E-4</v>
+      </c>
+      <c r="L6" s="35">
+        <v>1.013E-4</v>
+      </c>
+      <c r="M6" s="35">
+        <v>9.2839999999999999E-5</v>
+      </c>
+      <c r="N6" s="35">
+        <v>8.5699999999999996E-5</v>
+      </c>
+      <c r="O6" s="35">
+        <v>7.9579999999999994E-5</v>
+      </c>
+      <c r="P6" s="35">
+        <v>7.4270000000000006E-5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2183,7 +2650,7 @@
         <v>23</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2232,12 +2699,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SoilProfile.xlsx
+++ b/SoilProfile.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710B01DC-582D-4607-8A65-B005E5658027}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79175CF-DB04-4295-9115-32123DFE2237}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SoilParameters" sheetId="2" r:id="rId1"/>
     <sheet name="ModelParameters" sheetId="3" r:id="rId2"/>
-    <sheet name="Sayfa1" sheetId="7" r:id="rId3"/>
-    <sheet name="a" sheetId="8" r:id="rId4"/>
-    <sheet name="B" sheetId="9" r:id="rId5"/>
-    <sheet name="SheetPileParameters" sheetId="5" r:id="rId6"/>
-    <sheet name="RubberChips" sheetId="6" r:id="rId7"/>
+    <sheet name="a" sheetId="8" r:id="rId3"/>
+    <sheet name="B" sheetId="9" r:id="rId4"/>
+    <sheet name="SheetPileParameters" sheetId="5" r:id="rId5"/>
+    <sheet name="RubberChips" sheetId="6" r:id="rId6"/>
+    <sheet name="Sayfa1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="57">
   <si>
     <t>Ditch Number</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>Density(kg/m3)</t>
+  </si>
+  <si>
+    <t>VS</t>
   </si>
 </sst>
 </file>
@@ -453,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -539,6 +542,9 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -848,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -897,19 +903,19 @@
       </c>
       <c r="B3" s="27">
         <f>D3*(F3^2)*2*(1+C3)</f>
-        <v>225000000</v>
+        <v>278528000</v>
       </c>
       <c r="C3" s="27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="D3" s="28">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="E3" s="28">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="F3" s="27">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -917,20 +923,20 @@
         <v>32</v>
       </c>
       <c r="B4" s="27">
-        <f>D4*(F4^2)*2*(1+C4)</f>
-        <v>388800000</v>
+        <f t="shared" ref="B4" si="0">D4*(F4^2)*2*(1+C4)</f>
+        <v>477322750</v>
       </c>
       <c r="C4" s="27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="D4" s="28">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="E4" s="28">
-        <v>18.5</v>
+        <v>4</v>
       </c>
       <c r="F4" s="27">
-        <v>300</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -943,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -953,7 +959,7 @@
     <col min="2" max="2" width="27.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -961,7 +967,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
@@ -969,13 +975,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="15">
-        <f>SUM(SoilParameters!E3:E4)</f>
-        <v>21</v>
+        <f>SUM(SoilParameters!E3:E3)</f>
+        <v>8</v>
       </c>
       <c r="C3" s="29"/>
     </row>
@@ -1072,7 +1078,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1116,11 +1122,774 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0215C3-E54D-4C6C-B6D8-C27F5EE3E159}">
+  <dimension ref="A1:P6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="33">
+        <v>10</v>
+      </c>
+      <c r="C1" s="33">
+        <v>20</v>
+      </c>
+      <c r="D1" s="33">
+        <v>30</v>
+      </c>
+      <c r="E1" s="33">
+        <v>40</v>
+      </c>
+      <c r="F1" s="33">
+        <v>50</v>
+      </c>
+      <c r="G1" s="33">
+        <v>60</v>
+      </c>
+      <c r="H1" s="33">
+        <v>70</v>
+      </c>
+      <c r="I1" s="33">
+        <v>80</v>
+      </c>
+      <c r="J1" s="33">
+        <v>90</v>
+      </c>
+      <c r="K1" s="33">
+        <v>100</v>
+      </c>
+      <c r="L1" s="33">
+        <v>110</v>
+      </c>
+      <c r="M1" s="33">
+        <v>120</v>
+      </c>
+      <c r="N1" s="33">
+        <v>130</v>
+      </c>
+      <c r="O1" s="33">
+        <v>140</v>
+      </c>
+      <c r="P1" s="33">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="33">
+        <v>3</v>
+      </c>
+      <c r="B2" s="32">
+        <v>1.4139999999999999</v>
+      </c>
+      <c r="C2" s="32">
+        <v>3.5339999999999998</v>
+      </c>
+      <c r="D2" s="32">
+        <v>5.4980000000000002</v>
+      </c>
+      <c r="E2" s="32">
+        <v>7.4219999999999997</v>
+      </c>
+      <c r="F2" s="32">
+        <v>9.3309999999999995</v>
+      </c>
+      <c r="G2" s="32">
+        <v>11.23</v>
+      </c>
+      <c r="H2" s="32">
+        <v>13.13</v>
+      </c>
+      <c r="I2" s="32">
+        <v>15.02</v>
+      </c>
+      <c r="J2" s="32">
+        <v>16.91</v>
+      </c>
+      <c r="K2" s="32">
+        <v>18.8</v>
+      </c>
+      <c r="L2" s="32">
+        <v>20.69</v>
+      </c>
+      <c r="M2" s="32">
+        <v>22.58</v>
+      </c>
+      <c r="N2" s="32">
+        <v>24.47</v>
+      </c>
+      <c r="O2" s="32">
+        <v>26.36</v>
+      </c>
+      <c r="P2" s="32">
+        <v>28.24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="33">
+        <v>4</v>
+      </c>
+      <c r="B3" s="32">
+        <v>1.885</v>
+      </c>
+      <c r="C3" s="32">
+        <v>4.7119999999999997</v>
+      </c>
+      <c r="D3" s="32">
+        <v>7.33</v>
+      </c>
+      <c r="E3" s="32">
+        <v>9.8960000000000008</v>
+      </c>
+      <c r="F3" s="32">
+        <v>12.44</v>
+      </c>
+      <c r="G3" s="32">
+        <v>14.97</v>
+      </c>
+      <c r="H3" s="32">
+        <v>17.5</v>
+      </c>
+      <c r="I3" s="32">
+        <v>20.03</v>
+      </c>
+      <c r="J3" s="32">
+        <v>22.55</v>
+      </c>
+      <c r="K3" s="32">
+        <v>25.07</v>
+      </c>
+      <c r="L3" s="32">
+        <v>27.59</v>
+      </c>
+      <c r="M3" s="32">
+        <v>30.11</v>
+      </c>
+      <c r="N3" s="32">
+        <v>32.619999999999997</v>
+      </c>
+      <c r="O3" s="32">
+        <v>35.14</v>
+      </c>
+      <c r="P3" s="32">
+        <v>37.659999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="33">
+        <v>5</v>
+      </c>
+      <c r="B4" s="32">
+        <v>2.3559999999999999</v>
+      </c>
+      <c r="C4" s="32">
+        <v>5.89</v>
+      </c>
+      <c r="D4" s="32">
+        <v>9.1630000000000003</v>
+      </c>
+      <c r="E4" s="32">
+        <v>12.37</v>
+      </c>
+      <c r="F4" s="32">
+        <v>15.55</v>
+      </c>
+      <c r="G4" s="32">
+        <v>18.72</v>
+      </c>
+      <c r="H4" s="32">
+        <v>21.88</v>
+      </c>
+      <c r="I4" s="32">
+        <v>25.03</v>
+      </c>
+      <c r="J4" s="32">
+        <v>28.19</v>
+      </c>
+      <c r="K4" s="32">
+        <v>31.34</v>
+      </c>
+      <c r="L4" s="32">
+        <v>34.49</v>
+      </c>
+      <c r="M4" s="32">
+        <v>37.630000000000003</v>
+      </c>
+      <c r="N4" s="32">
+        <v>40.78</v>
+      </c>
+      <c r="O4" s="32">
+        <v>43.93</v>
+      </c>
+      <c r="P4" s="32">
+        <v>47.07</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="33">
+        <v>6</v>
+      </c>
+      <c r="B5" s="32">
+        <v>2.827</v>
+      </c>
+      <c r="C5" s="32">
+        <v>7.069</v>
+      </c>
+      <c r="D5" s="32">
+        <v>11</v>
+      </c>
+      <c r="E5" s="32">
+        <v>14.84</v>
+      </c>
+      <c r="F5" s="32">
+        <v>18.66</v>
+      </c>
+      <c r="G5" s="32">
+        <v>22.46</v>
+      </c>
+      <c r="H5" s="32">
+        <v>26.25</v>
+      </c>
+      <c r="I5" s="32">
+        <v>30.04</v>
+      </c>
+      <c r="J5" s="32">
+        <v>33.82</v>
+      </c>
+      <c r="K5" s="32">
+        <v>37.6</v>
+      </c>
+      <c r="L5" s="32">
+        <v>41.38</v>
+      </c>
+      <c r="M5" s="32">
+        <v>45.16</v>
+      </c>
+      <c r="N5" s="32">
+        <v>48.94</v>
+      </c>
+      <c r="O5" s="32">
+        <v>52.71</v>
+      </c>
+      <c r="P5" s="32">
+        <v>56.49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="33">
+        <v>7</v>
+      </c>
+      <c r="B6" s="32">
+        <v>3.2989999999999999</v>
+      </c>
+      <c r="C6" s="32">
+        <v>8.2469999999999999</v>
+      </c>
+      <c r="D6" s="32">
+        <v>12.83</v>
+      </c>
+      <c r="E6" s="32">
+        <v>17.32</v>
+      </c>
+      <c r="F6" s="32">
+        <v>21.77</v>
+      </c>
+      <c r="G6" s="32">
+        <v>26.21</v>
+      </c>
+      <c r="H6" s="32">
+        <v>30.63</v>
+      </c>
+      <c r="I6" s="32">
+        <v>35.049999999999997</v>
+      </c>
+      <c r="J6" s="32">
+        <v>39.46</v>
+      </c>
+      <c r="K6" s="32">
+        <v>43.87</v>
+      </c>
+      <c r="L6" s="32">
+        <v>48.28</v>
+      </c>
+      <c r="M6" s="32">
+        <v>52.69</v>
+      </c>
+      <c r="N6" s="32">
+        <v>57.09</v>
+      </c>
+      <c r="O6" s="32">
+        <v>61.5</v>
+      </c>
+      <c r="P6" s="32">
+        <v>65.900000000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D50B254-A166-4653-B21E-51028CAB79EA}">
+  <dimension ref="A1:P6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="16" width="11.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="33">
+        <v>10</v>
+      </c>
+      <c r="C1" s="33">
+        <v>20</v>
+      </c>
+      <c r="D1" s="33">
+        <v>30</v>
+      </c>
+      <c r="E1" s="33">
+        <v>40</v>
+      </c>
+      <c r="F1" s="33">
+        <v>50</v>
+      </c>
+      <c r="G1" s="33">
+        <v>60</v>
+      </c>
+      <c r="H1" s="33">
+        <v>70</v>
+      </c>
+      <c r="I1" s="33">
+        <v>80</v>
+      </c>
+      <c r="J1" s="33">
+        <v>90</v>
+      </c>
+      <c r="K1" s="33">
+        <v>100</v>
+      </c>
+      <c r="L1" s="33">
+        <v>110</v>
+      </c>
+      <c r="M1" s="33">
+        <v>120</v>
+      </c>
+      <c r="N1" s="33">
+        <v>130</v>
+      </c>
+      <c r="O1" s="33">
+        <v>140</v>
+      </c>
+      <c r="P1" s="33">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="33">
+        <v>3</v>
+      </c>
+      <c r="B2" s="35">
+        <v>4.7750000000000001E-4</v>
+      </c>
+      <c r="C2" s="35">
+        <v>2.387E-4</v>
+      </c>
+      <c r="D2" s="35">
+        <v>1.5919999999999999E-4</v>
+      </c>
+      <c r="E2" s="35">
+        <v>1.194E-4</v>
+      </c>
+      <c r="F2" s="35">
+        <v>9.5489999999999995E-5</v>
+      </c>
+      <c r="G2" s="35">
+        <v>7.9579999999999994E-5</v>
+      </c>
+      <c r="H2" s="35">
+        <v>6.8209999999999999E-5</v>
+      </c>
+      <c r="I2" s="35">
+        <v>5.9679999999999998E-5</v>
+      </c>
+      <c r="J2" s="35">
+        <v>5.3050000000000002E-5</v>
+      </c>
+      <c r="K2" s="35">
+        <v>4.7750000000000002E-5</v>
+      </c>
+      <c r="L2" s="35">
+        <v>4.3409999999999999E-5</v>
+      </c>
+      <c r="M2" s="35">
+        <v>3.9789999999999997E-5</v>
+      </c>
+      <c r="N2" s="35">
+        <v>3.6730000000000002E-5</v>
+      </c>
+      <c r="O2" s="35">
+        <v>3.4100000000000002E-5</v>
+      </c>
+      <c r="P2" s="35">
+        <v>3.1829999999999998E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="33">
+        <v>4</v>
+      </c>
+      <c r="B3" s="35">
+        <v>6.3659999999999997E-4</v>
+      </c>
+      <c r="C3" s="35">
+        <v>3.1829999999999998E-4</v>
+      </c>
+      <c r="D3" s="35">
+        <v>2.1220000000000001E-4</v>
+      </c>
+      <c r="E3" s="35">
+        <v>1.5919999999999999E-4</v>
+      </c>
+      <c r="F3" s="35">
+        <v>1.273E-4</v>
+      </c>
+      <c r="G3" s="35">
+        <v>1.061E-4</v>
+      </c>
+      <c r="H3" s="35">
+        <v>9.0950000000000002E-5</v>
+      </c>
+      <c r="I3" s="35">
+        <v>7.9579999999999994E-5</v>
+      </c>
+      <c r="J3" s="35">
+        <v>7.0740000000000004E-5</v>
+      </c>
+      <c r="K3" s="35">
+        <v>6.3659999999999997E-5</v>
+      </c>
+      <c r="L3" s="35">
+        <v>5.787E-5</v>
+      </c>
+      <c r="M3" s="35">
+        <v>5.3050000000000002E-5</v>
+      </c>
+      <c r="N3" s="35">
+        <v>4.897E-5</v>
+      </c>
+      <c r="O3" s="35">
+        <v>4.5469999999999997E-5</v>
+      </c>
+      <c r="P3" s="35">
+        <v>4.244E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="33">
+        <v>5</v>
+      </c>
+      <c r="B4" s="35">
+        <v>7.9580000000000004E-4</v>
+      </c>
+      <c r="C4" s="35">
+        <v>3.9790000000000002E-4</v>
+      </c>
+      <c r="D4" s="35">
+        <v>2.653E-4</v>
+      </c>
+      <c r="E4" s="35">
+        <v>1.9890000000000001E-4</v>
+      </c>
+      <c r="F4" s="35">
+        <v>1.5919999999999999E-4</v>
+      </c>
+      <c r="G4" s="35">
+        <v>1.326E-4</v>
+      </c>
+      <c r="H4" s="35">
+        <v>1.137E-4</v>
+      </c>
+      <c r="I4" s="35">
+        <v>9.9469999999999995E-5</v>
+      </c>
+      <c r="J4" s="35">
+        <v>8.8419999999999997E-5</v>
+      </c>
+      <c r="K4" s="35">
+        <v>7.9579999999999994E-5</v>
+      </c>
+      <c r="L4" s="35">
+        <v>7.2340000000000002E-5</v>
+      </c>
+      <c r="M4" s="35">
+        <v>6.6309999999999994E-5</v>
+      </c>
+      <c r="N4" s="35">
+        <v>6.1210000000000005E-5</v>
+      </c>
+      <c r="O4" s="35">
+        <v>5.6839999999999998E-5</v>
+      </c>
+      <c r="P4" s="35">
+        <v>5.3050000000000002E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="33">
+        <v>6</v>
+      </c>
+      <c r="B5" s="35">
+        <v>9.5489999999999995E-4</v>
+      </c>
+      <c r="C5" s="35">
+        <v>4.7750000000000001E-4</v>
+      </c>
+      <c r="D5" s="35">
+        <v>3.1829999999999998E-4</v>
+      </c>
+      <c r="E5" s="35">
+        <v>2.387E-4</v>
+      </c>
+      <c r="F5" s="35">
+        <v>1.9100000000000001E-4</v>
+      </c>
+      <c r="G5" s="35">
+        <v>1.5919999999999999E-4</v>
+      </c>
+      <c r="H5" s="35">
+        <v>1.3640000000000001E-4</v>
+      </c>
+      <c r="I5" s="35">
+        <v>1.194E-4</v>
+      </c>
+      <c r="J5" s="35">
+        <v>1.061E-4</v>
+      </c>
+      <c r="K5" s="35">
+        <v>9.5489999999999995E-5</v>
+      </c>
+      <c r="L5" s="35">
+        <v>8.6810000000000004E-5</v>
+      </c>
+      <c r="M5" s="35">
+        <v>7.9579999999999994E-5</v>
+      </c>
+      <c r="N5" s="35">
+        <v>7.3460000000000005E-5</v>
+      </c>
+      <c r="O5" s="35">
+        <v>6.8209999999999999E-5</v>
+      </c>
+      <c r="P5" s="35">
+        <v>6.3659999999999997E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="33">
+        <v>7</v>
+      </c>
+      <c r="B6" s="35">
+        <v>1.114E-3</v>
+      </c>
+      <c r="C6" s="35">
+        <v>5.5699999999999999E-4</v>
+      </c>
+      <c r="D6" s="35">
+        <v>3.7139999999999997E-4</v>
+      </c>
+      <c r="E6" s="35">
+        <v>2.7849999999999999E-4</v>
+      </c>
+      <c r="F6" s="35">
+        <v>2.2279999999999999E-4</v>
+      </c>
+      <c r="G6" s="35">
+        <v>1.8569999999999999E-4</v>
+      </c>
+      <c r="H6" s="35">
+        <v>1.5919999999999999E-4</v>
+      </c>
+      <c r="I6" s="35">
+        <v>1.393E-4</v>
+      </c>
+      <c r="J6" s="35">
+        <v>1.238E-4</v>
+      </c>
+      <c r="K6" s="35">
+        <v>1.114E-4</v>
+      </c>
+      <c r="L6" s="35">
+        <v>1.013E-4</v>
+      </c>
+      <c r="M6" s="35">
+        <v>9.2839999999999999E-5</v>
+      </c>
+      <c r="N6" s="35">
+        <v>8.5699999999999996E-5</v>
+      </c>
+      <c r="O6" s="35">
+        <v>7.9579999999999994E-5</v>
+      </c>
+      <c r="P6" s="35">
+        <v>7.4270000000000006E-5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.44140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="4">
+        <v>200000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="25">
+        <v>7900</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="27">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="25">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1C3661-8988-47D7-A84F-A79A0F4EE73C}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1140,22 +1909,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="H1" s="36" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="H1" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
     </row>
     <row r="2" spans="1:13" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -1219,6 +1988,7 @@
         <v>31</v>
       </c>
       <c r="I3" s="27">
+        <f>K3*(M3^2)*2*(1+J3)</f>
         <v>315375000</v>
       </c>
       <c r="J3" s="27">
@@ -1258,6 +2028,7 @@
         <v>32</v>
       </c>
       <c r="I4" s="27">
+        <f t="shared" ref="I4:I6" si="0">K4*(M4^2)*2*(1+J4)</f>
         <v>396093750</v>
       </c>
       <c r="J4" s="27">
@@ -1297,7 +2068,8 @@
         <v>33</v>
       </c>
       <c r="I5" s="27">
-        <v>311260500</v>
+        <f t="shared" si="0"/>
+        <v>316012500</v>
       </c>
       <c r="J5" s="27">
         <v>0.25</v>
@@ -1309,7 +2081,7 @@
         <v>11</v>
       </c>
       <c r="M5" s="27">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -1336,6 +2108,7 @@
         <v>34</v>
       </c>
       <c r="I6" s="27">
+        <f t="shared" si="0"/>
         <v>593570687.5</v>
       </c>
       <c r="J6" s="27">
@@ -1360,22 +2133,22 @@
       <c r="M7" s="27"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="H8" s="36" t="s">
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="H8" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
     </row>
     <row r="9" spans="1:13" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -1580,7 +2353,7 @@
         <v>37</v>
       </c>
       <c r="B14" s="27">
-        <f t="shared" ref="B14:B18" si="0">D14*(F14^2)*2*(1+C14)</f>
+        <f t="shared" ref="B14:B18" si="1">D14*(F14^2)*2*(1+C14)</f>
         <v>283024000</v>
       </c>
       <c r="C14" s="27">
@@ -1599,7 +2372,7 @@
         <v>37</v>
       </c>
       <c r="I14" s="27">
-        <f t="shared" ref="I14:I20" si="1">K14*(M14^2)*2*(1+J14)</f>
+        <f t="shared" ref="I14:I20" si="2">K14*(M14^2)*2*(1+J14)</f>
         <v>408375000</v>
       </c>
       <c r="J14" s="27">
@@ -1620,7 +2393,7 @@
         <v>38</v>
       </c>
       <c r="B15" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>332929000</v>
       </c>
       <c r="C15" s="27">
@@ -1639,7 +2412,7 @@
         <v>38</v>
       </c>
       <c r="I15" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>376833750</v>
       </c>
       <c r="J15" s="27">
@@ -1660,7 +2433,7 @@
         <v>39</v>
       </c>
       <c r="B16" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>425732062.5</v>
       </c>
       <c r="C16" s="27">
@@ -1679,7 +2452,7 @@
         <v>39</v>
       </c>
       <c r="I16" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>281250000</v>
       </c>
       <c r="J16" s="27">
@@ -1700,7 +2473,7 @@
         <v>40</v>
       </c>
       <c r="B17" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>514144750</v>
       </c>
       <c r="C17" s="27">
@@ -1719,7 +2492,7 @@
         <v>40</v>
       </c>
       <c r="I17" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>325624500</v>
       </c>
       <c r="J17" s="27">
@@ -1740,7 +2513,7 @@
         <v>41</v>
       </c>
       <c r="B18" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>466840687.5</v>
       </c>
       <c r="C18" s="27">
@@ -1759,7 +2532,7 @@
         <v>41</v>
       </c>
       <c r="I18" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>329266125</v>
       </c>
       <c r="J18" s="27">
@@ -1780,7 +2553,7 @@
         <v>43</v>
       </c>
       <c r="I19" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>347558687.5</v>
       </c>
       <c r="J19" s="27">
@@ -1801,7 +2574,7 @@
         <v>44</v>
       </c>
       <c r="I20" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>593570687.5</v>
       </c>
       <c r="J20" s="27">
@@ -1992,748 +2765,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0215C3-E54D-4C6C-B6D8-C27F5EE3E159}">
-  <dimension ref="A1:P6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="33">
-        <v>10</v>
-      </c>
-      <c r="C1" s="33">
-        <v>20</v>
-      </c>
-      <c r="D1" s="33">
-        <v>30</v>
-      </c>
-      <c r="E1" s="33">
-        <v>40</v>
-      </c>
-      <c r="F1" s="33">
-        <v>50</v>
-      </c>
-      <c r="G1" s="33">
-        <v>60</v>
-      </c>
-      <c r="H1" s="33">
-        <v>70</v>
-      </c>
-      <c r="I1" s="33">
-        <v>80</v>
-      </c>
-      <c r="J1" s="33">
-        <v>90</v>
-      </c>
-      <c r="K1" s="33">
-        <v>100</v>
-      </c>
-      <c r="L1" s="33">
-        <v>110</v>
-      </c>
-      <c r="M1" s="33">
-        <v>120</v>
-      </c>
-      <c r="N1" s="33">
-        <v>130</v>
-      </c>
-      <c r="O1" s="33">
-        <v>140</v>
-      </c>
-      <c r="P1" s="33">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="33">
-        <v>3</v>
-      </c>
-      <c r="B2" s="32">
-        <v>1.4139999999999999</v>
-      </c>
-      <c r="C2" s="32">
-        <v>3.5339999999999998</v>
-      </c>
-      <c r="D2" s="32">
-        <v>5.4980000000000002</v>
-      </c>
-      <c r="E2" s="32">
-        <v>7.4219999999999997</v>
-      </c>
-      <c r="F2" s="32">
-        <v>9.3309999999999995</v>
-      </c>
-      <c r="G2" s="32">
-        <v>11.23</v>
-      </c>
-      <c r="H2" s="32">
-        <v>13.13</v>
-      </c>
-      <c r="I2" s="32">
-        <v>15.02</v>
-      </c>
-      <c r="J2" s="32">
-        <v>16.91</v>
-      </c>
-      <c r="K2" s="32">
-        <v>18.8</v>
-      </c>
-      <c r="L2" s="32">
-        <v>20.69</v>
-      </c>
-      <c r="M2" s="32">
-        <v>22.58</v>
-      </c>
-      <c r="N2" s="32">
-        <v>24.47</v>
-      </c>
-      <c r="O2" s="32">
-        <v>26.36</v>
-      </c>
-      <c r="P2" s="32">
-        <v>28.24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="33">
-        <v>4</v>
-      </c>
-      <c r="B3" s="32">
-        <v>1.885</v>
-      </c>
-      <c r="C3" s="32">
-        <v>4.7119999999999997</v>
-      </c>
-      <c r="D3" s="32">
-        <v>7.33</v>
-      </c>
-      <c r="E3" s="32">
-        <v>9.8960000000000008</v>
-      </c>
-      <c r="F3" s="32">
-        <v>12.44</v>
-      </c>
-      <c r="G3" s="32">
-        <v>14.97</v>
-      </c>
-      <c r="H3" s="32">
-        <v>17.5</v>
-      </c>
-      <c r="I3" s="32">
-        <v>20.03</v>
-      </c>
-      <c r="J3" s="32">
-        <v>22.55</v>
-      </c>
-      <c r="K3" s="32">
-        <v>25.07</v>
-      </c>
-      <c r="L3" s="32">
-        <v>27.59</v>
-      </c>
-      <c r="M3" s="32">
-        <v>30.11</v>
-      </c>
-      <c r="N3" s="32">
-        <v>32.619999999999997</v>
-      </c>
-      <c r="O3" s="32">
-        <v>35.14</v>
-      </c>
-      <c r="P3" s="32">
-        <v>37.659999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="33">
-        <v>5</v>
-      </c>
-      <c r="B4" s="32">
-        <v>2.3559999999999999</v>
-      </c>
-      <c r="C4" s="32">
-        <v>5.89</v>
-      </c>
-      <c r="D4" s="32">
-        <v>9.1630000000000003</v>
-      </c>
-      <c r="E4" s="32">
-        <v>12.37</v>
-      </c>
-      <c r="F4" s="32">
-        <v>15.55</v>
-      </c>
-      <c r="G4" s="32">
-        <v>18.72</v>
-      </c>
-      <c r="H4" s="32">
-        <v>21.88</v>
-      </c>
-      <c r="I4" s="32">
-        <v>25.03</v>
-      </c>
-      <c r="J4" s="32">
-        <v>28.19</v>
-      </c>
-      <c r="K4" s="32">
-        <v>31.34</v>
-      </c>
-      <c r="L4" s="32">
-        <v>34.49</v>
-      </c>
-      <c r="M4" s="32">
-        <v>37.630000000000003</v>
-      </c>
-      <c r="N4" s="32">
-        <v>40.78</v>
-      </c>
-      <c r="O4" s="32">
-        <v>43.93</v>
-      </c>
-      <c r="P4" s="32">
-        <v>47.07</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="33">
-        <v>6</v>
-      </c>
-      <c r="B5" s="32">
-        <v>2.827</v>
-      </c>
-      <c r="C5" s="32">
-        <v>7.069</v>
-      </c>
-      <c r="D5" s="32">
-        <v>11</v>
-      </c>
-      <c r="E5" s="32">
-        <v>14.84</v>
-      </c>
-      <c r="F5" s="32">
-        <v>18.66</v>
-      </c>
-      <c r="G5" s="32">
-        <v>22.46</v>
-      </c>
-      <c r="H5" s="32">
-        <v>26.25</v>
-      </c>
-      <c r="I5" s="32">
-        <v>30.04</v>
-      </c>
-      <c r="J5" s="32">
-        <v>33.82</v>
-      </c>
-      <c r="K5" s="32">
-        <v>37.6</v>
-      </c>
-      <c r="L5" s="32">
-        <v>41.38</v>
-      </c>
-      <c r="M5" s="32">
-        <v>45.16</v>
-      </c>
-      <c r="N5" s="32">
-        <v>48.94</v>
-      </c>
-      <c r="O5" s="32">
-        <v>52.71</v>
-      </c>
-      <c r="P5" s="32">
-        <v>56.49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="33">
-        <v>7</v>
-      </c>
-      <c r="B6" s="32">
-        <v>3.2989999999999999</v>
-      </c>
-      <c r="C6" s="32">
-        <v>8.2469999999999999</v>
-      </c>
-      <c r="D6" s="32">
-        <v>12.83</v>
-      </c>
-      <c r="E6" s="32">
-        <v>17.32</v>
-      </c>
-      <c r="F6" s="32">
-        <v>21.77</v>
-      </c>
-      <c r="G6" s="32">
-        <v>26.21</v>
-      </c>
-      <c r="H6" s="32">
-        <v>30.63</v>
-      </c>
-      <c r="I6" s="32">
-        <v>35.049999999999997</v>
-      </c>
-      <c r="J6" s="32">
-        <v>39.46</v>
-      </c>
-      <c r="K6" s="32">
-        <v>43.87</v>
-      </c>
-      <c r="L6" s="32">
-        <v>48.28</v>
-      </c>
-      <c r="M6" s="32">
-        <v>52.69</v>
-      </c>
-      <c r="N6" s="32">
-        <v>57.09</v>
-      </c>
-      <c r="O6" s="32">
-        <v>61.5</v>
-      </c>
-      <c r="P6" s="32">
-        <v>65.900000000000006</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D50B254-A166-4653-B21E-51028CAB79EA}">
-  <dimension ref="A1:P6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="16" width="11.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="33">
-        <v>10</v>
-      </c>
-      <c r="C1" s="33">
-        <v>20</v>
-      </c>
-      <c r="D1" s="33">
-        <v>30</v>
-      </c>
-      <c r="E1" s="33">
-        <v>40</v>
-      </c>
-      <c r="F1" s="33">
-        <v>50</v>
-      </c>
-      <c r="G1" s="33">
-        <v>60</v>
-      </c>
-      <c r="H1" s="33">
-        <v>70</v>
-      </c>
-      <c r="I1" s="33">
-        <v>80</v>
-      </c>
-      <c r="J1" s="33">
-        <v>90</v>
-      </c>
-      <c r="K1" s="33">
-        <v>100</v>
-      </c>
-      <c r="L1" s="33">
-        <v>110</v>
-      </c>
-      <c r="M1" s="33">
-        <v>120</v>
-      </c>
-      <c r="N1" s="33">
-        <v>130</v>
-      </c>
-      <c r="O1" s="33">
-        <v>140</v>
-      </c>
-      <c r="P1" s="33">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="33">
-        <v>3</v>
-      </c>
-      <c r="B2" s="35">
-        <v>4.7750000000000001E-4</v>
-      </c>
-      <c r="C2" s="35">
-        <v>2.387E-4</v>
-      </c>
-      <c r="D2" s="35">
-        <v>1.5919999999999999E-4</v>
-      </c>
-      <c r="E2" s="35">
-        <v>1.194E-4</v>
-      </c>
-      <c r="F2" s="35">
-        <v>9.5489999999999995E-5</v>
-      </c>
-      <c r="G2" s="35">
-        <v>7.9579999999999994E-5</v>
-      </c>
-      <c r="H2" s="35">
-        <v>6.8209999999999999E-5</v>
-      </c>
-      <c r="I2" s="35">
-        <v>5.9679999999999998E-5</v>
-      </c>
-      <c r="J2" s="35">
-        <v>5.3050000000000002E-5</v>
-      </c>
-      <c r="K2" s="35">
-        <v>4.7750000000000002E-5</v>
-      </c>
-      <c r="L2" s="35">
-        <v>4.3409999999999999E-5</v>
-      </c>
-      <c r="M2" s="35">
-        <v>3.9789999999999997E-5</v>
-      </c>
-      <c r="N2" s="35">
-        <v>3.6730000000000002E-5</v>
-      </c>
-      <c r="O2" s="35">
-        <v>3.4100000000000002E-5</v>
-      </c>
-      <c r="P2" s="35">
-        <v>3.1829999999999998E-5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="33">
-        <v>4</v>
-      </c>
-      <c r="B3" s="35">
-        <v>6.3659999999999997E-4</v>
-      </c>
-      <c r="C3" s="35">
-        <v>3.1829999999999998E-4</v>
-      </c>
-      <c r="D3" s="35">
-        <v>2.1220000000000001E-4</v>
-      </c>
-      <c r="E3" s="35">
-        <v>1.5919999999999999E-4</v>
-      </c>
-      <c r="F3" s="35">
-        <v>1.273E-4</v>
-      </c>
-      <c r="G3" s="35">
-        <v>1.061E-4</v>
-      </c>
-      <c r="H3" s="35">
-        <v>9.0950000000000002E-5</v>
-      </c>
-      <c r="I3" s="35">
-        <v>7.9579999999999994E-5</v>
-      </c>
-      <c r="J3" s="35">
-        <v>7.0740000000000004E-5</v>
-      </c>
-      <c r="K3" s="35">
-        <v>6.3659999999999997E-5</v>
-      </c>
-      <c r="L3" s="35">
-        <v>5.787E-5</v>
-      </c>
-      <c r="M3" s="35">
-        <v>5.3050000000000002E-5</v>
-      </c>
-      <c r="N3" s="35">
-        <v>4.897E-5</v>
-      </c>
-      <c r="O3" s="35">
-        <v>4.5469999999999997E-5</v>
-      </c>
-      <c r="P3" s="35">
-        <v>4.244E-5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="33">
-        <v>5</v>
-      </c>
-      <c r="B4" s="35">
-        <v>7.9580000000000004E-4</v>
-      </c>
-      <c r="C4" s="35">
-        <v>3.9790000000000002E-4</v>
-      </c>
-      <c r="D4" s="35">
-        <v>2.653E-4</v>
-      </c>
-      <c r="E4" s="35">
-        <v>1.9890000000000001E-4</v>
-      </c>
-      <c r="F4" s="35">
-        <v>1.5919999999999999E-4</v>
-      </c>
-      <c r="G4" s="35">
-        <v>1.326E-4</v>
-      </c>
-      <c r="H4" s="35">
-        <v>1.137E-4</v>
-      </c>
-      <c r="I4" s="35">
-        <v>9.9469999999999995E-5</v>
-      </c>
-      <c r="J4" s="35">
-        <v>8.8419999999999997E-5</v>
-      </c>
-      <c r="K4" s="35">
-        <v>7.9579999999999994E-5</v>
-      </c>
-      <c r="L4" s="35">
-        <v>7.2340000000000002E-5</v>
-      </c>
-      <c r="M4" s="35">
-        <v>6.6309999999999994E-5</v>
-      </c>
-      <c r="N4" s="35">
-        <v>6.1210000000000005E-5</v>
-      </c>
-      <c r="O4" s="35">
-        <v>5.6839999999999998E-5</v>
-      </c>
-      <c r="P4" s="35">
-        <v>5.3050000000000002E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="33">
-        <v>6</v>
-      </c>
-      <c r="B5" s="35">
-        <v>9.5489999999999995E-4</v>
-      </c>
-      <c r="C5" s="35">
-        <v>4.7750000000000001E-4</v>
-      </c>
-      <c r="D5" s="35">
-        <v>3.1829999999999998E-4</v>
-      </c>
-      <c r="E5" s="35">
-        <v>2.387E-4</v>
-      </c>
-      <c r="F5" s="35">
-        <v>1.9100000000000001E-4</v>
-      </c>
-      <c r="G5" s="35">
-        <v>1.5919999999999999E-4</v>
-      </c>
-      <c r="H5" s="35">
-        <v>1.3640000000000001E-4</v>
-      </c>
-      <c r="I5" s="35">
-        <v>1.194E-4</v>
-      </c>
-      <c r="J5" s="35">
-        <v>1.061E-4</v>
-      </c>
-      <c r="K5" s="35">
-        <v>9.5489999999999995E-5</v>
-      </c>
-      <c r="L5" s="35">
-        <v>8.6810000000000004E-5</v>
-      </c>
-      <c r="M5" s="35">
-        <v>7.9579999999999994E-5</v>
-      </c>
-      <c r="N5" s="35">
-        <v>7.3460000000000005E-5</v>
-      </c>
-      <c r="O5" s="35">
-        <v>6.8209999999999999E-5</v>
-      </c>
-      <c r="P5" s="35">
-        <v>6.3659999999999997E-5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="33">
-        <v>7</v>
-      </c>
-      <c r="B6" s="35">
-        <v>1.114E-3</v>
-      </c>
-      <c r="C6" s="35">
-        <v>5.5699999999999999E-4</v>
-      </c>
-      <c r="D6" s="35">
-        <v>3.7139999999999997E-4</v>
-      </c>
-      <c r="E6" s="35">
-        <v>2.7849999999999999E-4</v>
-      </c>
-      <c r="F6" s="35">
-        <v>2.2279999999999999E-4</v>
-      </c>
-      <c r="G6" s="35">
-        <v>1.8569999999999999E-4</v>
-      </c>
-      <c r="H6" s="35">
-        <v>1.5919999999999999E-4</v>
-      </c>
-      <c r="I6" s="35">
-        <v>1.393E-4</v>
-      </c>
-      <c r="J6" s="35">
-        <v>1.238E-4</v>
-      </c>
-      <c r="K6" s="35">
-        <v>1.114E-4</v>
-      </c>
-      <c r="L6" s="35">
-        <v>1.013E-4</v>
-      </c>
-      <c r="M6" s="35">
-        <v>9.2839999999999999E-5</v>
-      </c>
-      <c r="N6" s="35">
-        <v>8.5699999999999996E-5</v>
-      </c>
-      <c r="O6" s="35">
-        <v>7.9579999999999994E-5</v>
-      </c>
-      <c r="P6" s="35">
-        <v>7.4270000000000006E-5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.44140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="4">
-        <v>200000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="25">
-        <v>7900</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="4">
-        <v>200000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="25">
-        <v>7900</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/SoilProfile.xlsx
+++ b/SoilProfile.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79175CF-DB04-4295-9115-32123DFE2237}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3C1CDC-CE5F-4DD3-9C69-D1617D9A9353}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -855,7 +855,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -950,7 +950,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1888,8 +1888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1C3661-8988-47D7-A84F-A79A0F4EE73C}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
